--- a/testJob/template2.xlsx
+++ b/testJob/template2.xlsx
@@ -44,49 +44,49 @@
     <t>es</t>
   </si>
   <si>
-    <t>se</t>
+    <t>sv</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
-    <t>fi</t>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>da</t>
   </si>
   <si>
     <t>nl</t>
   </si>
   <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>page_ai_dresses_save_you_like</t>
-  </si>
-  <si>
-    <t>Save the wedding dress designs you like</t>
-  </si>
-  <si>
-    <t>page_ai_dresses_no_designs_yet</t>
-  </si>
-  <si>
-    <t>No designs yet</t>
-  </si>
-  <si>
-    <t>page_ai_dresses_add_new_design</t>
-  </si>
-  <si>
-    <t>Add new design</t>
-  </si>
-  <si>
-    <t>page_ai_dresses_most_liked_designs</t>
-  </si>
-  <si>
-    <t>Like your favorite AI wedding dress designs! The most-liked designs will be brought to life through our production process.</t>
+    <t>page_common_gift_guide_bd_category_title</t>
+  </si>
+  <si>
+    <t>Related inspiration for The Bridesmaids</t>
+  </si>
+  <si>
+    <t>page_common_gift_guide_acc_category_title</t>
+  </si>
+  <si>
+    <t>Shop for The Bridesmaids Accessories?</t>
+  </si>
+  <si>
+    <t>page_gift_guide_category_more_titele</t>
+  </si>
+  <si>
+    <t>Get extra-special gifts for anyone</t>
+  </si>
+  <si>
+    <t>page_gift_guide_category_more_button</t>
+  </si>
+  <si>
+    <t>Browse all</t>
+  </si>
+  <si>
+    <t>page_gift_guide_discover_button</t>
+  </si>
+  <si>
+    <t>Discover more like this</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,6 +114,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -458,27 +464,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,148 +588,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1098,19 +1089,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
     <col min="2" max="2" width="90.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,43 +1131,45 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
